--- a/case study propionate/results_All_substrates.xlsx
+++ b/case study propionate/results_All_substrates.xlsx
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>182.7889166722919</v>
+        <v>148.0704815313893</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>444.9057959249311</v>
+        <v>444.9057959162892</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.8224491787346</v>
+        <v>130.8224491787308</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.079710120916967</v>
+        <v>9.079710120740593</v>
       </c>
     </row>
     <row r="19">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.046055129239208</v>
+        <v>4.046055129239088</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>453.9855060458481</v>
+        <v>453.9855060370296</v>
       </c>
     </row>
     <row r="23">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>134.8685043079738</v>
+        <v>134.8685043079699</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301463.2965074213</v>
+        <v>301463.2965074124</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6069.082693858822</v>
+        <v>6069.082693858644</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34065.35250533861</v>
+        <v>34065.35250533762</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7494.377551174495</v>
+        <v>7494.377551174273</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>440.4567379656818</v>
+        <v>440.4567379571263</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.449057959249304</v>
+        <v>4.44905795916288</v>
       </c>
     </row>
     <row r="33">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.9057959249311</v>
+        <v>444.9057959162892</v>
       </c>
     </row>
     <row r="35">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12544.1909493926</v>
+        <v>12544.19094938395</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9659.027031032299</v>
+        <v>9659.027031025644</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2124.985946827105</v>
+        <v>2124.985946825642</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>440.4567379656818</v>
+        <v>440.4567379571263</v>
       </c>
     </row>
     <row r="40">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>288923.151613158</v>
+        <v>288923.1516131578</v>
       </c>
     </row>
     <row r="43">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27418.04182159284</v>
+        <v>27418.04182158377</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15691.08619186042</v>
+        <v>15691.08619185855</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25152.17161215243</v>
+        <v>25152.17161215057</v>
       </c>
     </row>
     <row r="48">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2265.870209440413</v>
+        <v>2265.870209433193</v>
       </c>
     </row>
   </sheetData>

--- a/case study propionate/results_All_substrates.xlsx
+++ b/case study propionate/results_All_substrates.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.9855060425303</v>
+        <v>5984.301031857056</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12221.50015501784</v>
+        <v>13191.30596193508</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>288787.8108463572</v>
+        <v>311335.9915490933</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6080.559535171632</v>
+        <v>1393.455832459426</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>453.9855060425303</v>
+        <v>5984.301031857056</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12221.50015501784</v>
+        <v>13191.30596193508</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>288787.8108463572</v>
+        <v>311335.9915490933</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6080.559535171632</v>
+        <v>1393.455832459426</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.0704815313893</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>444.9057959162892</v>
+        <v>5864.615011221111</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12099.28515346766</v>
+        <v>13059.39290231574</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.8224491787308</v>
+        <v>143.4281960832159</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.079710120740593</v>
+        <v>119.6860206371655</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.2150015501785</v>
+        <v>131.9130596193509</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.046055129239088</v>
+        <v>4.435923590202552</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>288787.8108463577</v>
+        <v>311335.991549093</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>453.9855060370296</v>
+        <v>5984.301031858276</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12221.50015501784</v>
+        <v>13191.30596193508</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>288787.8108463577</v>
+        <v>311335.991549093</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>134.8685043079699</v>
+        <v>147.8641196734185</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301463.2965074124</v>
+        <v>330511.5985428864</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6069.082693858644</v>
+        <v>6653.885385303831</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34065.35250533762</v>
+        <v>37347.81063534616</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7494.377551174273</v>
+        <v>8216.518339776158</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>440.4567379571263</v>
+        <v>5805.968861108899</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.9928515346767</v>
+        <v>130.5939290231574</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.44905795916288</v>
+        <v>58.6461501122111</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11978.29230193299</v>
+        <v>12928.79897329257</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.9057959162892</v>
+        <v>5864.615011221111</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12099.28515346766</v>
+        <v>13059.39290231574</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12544.19094938395</v>
+        <v>18924.00791353684</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9659.027031025644</v>
+        <v>14571.48609342337</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2124.985946825642</v>
+        <v>3205.726940553142</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>440.4567379571263</v>
+        <v>5805.968861108899</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11978.29230193299</v>
+        <v>12928.79897329257</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6080.559535171632</v>
+        <v>1393.455832459426</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>288923.1516131578</v>
+        <v>311592.0265529398</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>821.0854202920118</v>
+        <v>219.3279897594893</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27418.04182158377</v>
+        <v>35244.12468268373</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15691.08619185855</v>
+        <v>18078.77066563313</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25152.17161215057</v>
+        <v>26938.09865539262</v>
       </c>
     </row>
     <row r="48">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2265.870209433193</v>
+        <v>8306.026027291109</v>
       </c>
     </row>
   </sheetData>
